--- a/Projects/Retail Sales Performance Dashboard/Week-3/Dataset/employees.csv.xlsx
+++ b/Projects/Retail Sales Performance Dashboard/Week-3/Dataset/employees.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anbu\OneDrive\Desktop\Git Notes\Projects\Retail Sales Performance Dashboard\Week-3\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55574F29-4ECA-4351-AFC7-12A650D40B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D216AB4-95DB-4FE4-B5D2-71A9E6E12B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{10CB862E-A69C-48AE-9224-A10CD3527E1C}"/>
   </bookViews>
